--- a/results/mp/tinybert/corona/confidence/42/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,19 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -61,19 +61,31 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
@@ -82,121 +94,118 @@
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>good</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7532467532467533</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3562231759656652</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.90625</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2558139534883721</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,87 +982,63 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.175</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>338</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>116</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,21 +1050,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8431372549019608</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,21 +1076,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8431372549019608</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1143,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8333333333333334</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1169,47 +1154,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1221,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1247,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7647058823529411</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7586206896551724</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1299,15 +1284,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7307692307692307</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -1325,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.72</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1351,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.7123287671232876</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1377,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1403,21 +1388,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.696969696969697</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1429,21 +1414,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6551724137931034</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1455,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1481,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L28">
         <v>43</v>
       </c>
-      <c r="K28">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L28">
-        <v>14</v>
-      </c>
       <c r="M28">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1507,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5789473684210527</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1533,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5666666666666667</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1559,21 +1544,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.55</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1585,21 +1570,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5492957746478874</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1611,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5069444444444444</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1637,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4651162790697674</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1663,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.34375</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1689,21 +1674,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4571428571428571</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1715,21 +1700,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.4347826086956522</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1741,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>52</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3157894736842105</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1767,21 +1752,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3125</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1793,163 +1778,267 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.2702702702702703</v>
+        <v>0.0243161094224924</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>27</v>
+        <v>963</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.2037037037037037</v>
+        <v>0.01802539942646456</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.03658536585365853</v>
+        <v>0.01462317210348706</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>395</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.03070175438596491</v>
+        <v>0.01261092947220925</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>442</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.01077586206896552</v>
+        <v>0.01135885570046277</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>918</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.01021225470564678</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>53</v>
+      </c>
+      <c r="N45">
+        <v>0.96</v>
+      </c>
+      <c r="O45">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K45">
-        <v>0.00572737686139748</v>
-      </c>
-      <c r="L45">
-        <v>10</v>
-      </c>
-      <c r="M45">
-        <v>10</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1736</v>
+      <c r="K46">
+        <v>0.01007361487795428</v>
+      </c>
+      <c r="L46">
+        <v>52</v>
+      </c>
+      <c r="M46">
+        <v>55</v>
+      </c>
+      <c r="N46">
+        <v>0.95</v>
+      </c>
+      <c r="O46">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.009479768786127168</v>
+      </c>
+      <c r="L47">
+        <v>41</v>
+      </c>
+      <c r="M47">
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.008665511265164644</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>0.95</v>
+      </c>
+      <c r="O48">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.008370895041854474</v>
+      </c>
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
